--- a/Data/addClient.xlsx
+++ b/Data/addClient.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="348" windowWidth="22644" windowHeight="9228"/>
+    <workbookView xWindow="384" yWindow="348" windowWidth="22644" windowHeight="9228" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="dbTesting" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -145,6 +147,90 @@
   </si>
   <si>
     <t>//div[contains(@class,'alert')]</t>
+  </si>
+  <si>
+    <t>rutuja2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data from excel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrayList&lt;String&gt; expected = new ArrayList&lt;&gt;() </t>
+  </si>
+  <si>
+    <t>data from database table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrayList&lt;String&gt; actual = new ArrayList&lt;&gt;() </t>
+  </si>
+  <si>
+    <t>expected.add(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_name    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_surname                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_address_1                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_address_2                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_city                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_state                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_zip                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_country   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_gender                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_birthdate                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_phone                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_fax                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_mobile                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_email                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_web                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_vat_id                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_tax_code                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> client_language        </t>
+  </si>
+  <si>
+    <t>actual.add(rs.getString("</t>
+  </si>
+  <si>
+    <t>"));</t>
+  </si>
+  <si>
+    <t>rutuja3</t>
   </si>
 </sst>
 </file>
@@ -160,12 +246,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,9 +272,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView topLeftCell="M1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -501,7 +600,7 @@
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -698,21 +797,788 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>411011</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2">
+        <v>43434434</v>
+      </c>
+      <c r="M2">
+        <v>43434</v>
+      </c>
+      <c r="N2">
+        <v>9810000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2">
+        <v>343423</v>
+      </c>
+      <c r="R2">
+        <v>32323</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:R18"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>411011</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8">
+        <v>43434434</v>
+      </c>
+      <c r="M8">
+        <v>43434</v>
+      </c>
+      <c r="N8">
+        <v>9810000</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8">
+        <v>343423</v>
+      </c>
+      <c r="R8">
+        <v>32323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <v>411011</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18">
+        <v>43434434</v>
+      </c>
+      <c r="M18">
+        <v>43434</v>
+      </c>
+      <c r="N18">
+        <v>9810000</v>
+      </c>
+      <c r="O18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18">
+        <v>343423</v>
+      </c>
+      <c r="R18">
+        <v>32323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D5:J22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:10">
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="D7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10">
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="D10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10">
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10">
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10">
+      <c r="D15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10">
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>

--- a/Data/addClient.xlsx
+++ b/Data/addClient.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\CucumberPOM-Aug22\POM8AMFeb23\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9C9C39-568D-4341-A90F-1E8E854BC64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="348" windowWidth="22644" windowHeight="9228" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,14 +236,14 @@
     <t>"));</t>
   </si>
   <si>
-    <t>rutuja3</t>
+    <t>rutuja6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +294,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -334,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,14 +625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView topLeftCell="M1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="M1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
@@ -603,7 +653,7 @@
     <col min="20" max="20" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -727,7 +777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -796,16 +846,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -923,20 +973,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:R18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -949,7 +999,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1061,7 +1111,7 @@
         <v>32323</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1074,7 +1124,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1193,20 +1243,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D5:J22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H5" sqref="H5:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:10">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
@@ -1226,7 +1276,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="4:10">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
@@ -1246,7 +1296,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="4:10">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D7" s="4" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1316,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="4:10">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
@@ -1286,7 +1336,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="4:10">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
@@ -1306,7 +1356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="4:10">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
         <v>48</v>
       </c>
@@ -1326,7 +1376,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="4:10">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1346,7 +1396,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="4:10">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
@@ -1366,7 +1416,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="4:10">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
         <v>48</v>
       </c>
@@ -1386,7 +1436,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="4:10">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
         <v>48</v>
       </c>
@@ -1406,7 +1456,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="4:10">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
@@ -1426,7 +1476,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="4:10">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1446,7 +1496,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="4:10">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D17" s="4" t="s">
         <v>48</v>
       </c>
@@ -1466,7 +1516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="4:10">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D18" s="4" t="s">
         <v>48</v>
       </c>
@@ -1486,7 +1536,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="4:10">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D19" s="4" t="s">
         <v>48</v>
       </c>
@@ -1506,7 +1556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="4:10">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D20" s="4" t="s">
         <v>48</v>
       </c>
@@ -1526,7 +1576,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="4:10">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D21" s="4" t="s">
         <v>48</v>
       </c>
@@ -1546,7 +1596,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="4:10">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D22" s="4" t="s">
         <v>48</v>
       </c>
@@ -1573,14 +1623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
